--- a/NFLStats/Aggregates/OL_aggregate.xlsx
+++ b/NFLStats/Aggregates/OL_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,6 +1216,825 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Dallas Goedert</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Dallas Goedert</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Dallas Goedert</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Gerald Everett</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Gerald Everett</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Gerald Everett</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Hayden Hurst</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Hayden Hurst</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Hayden Hurst</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Will Dissly</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n"/>
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Zach Ertz</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Brandon Scherff</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Brandon Scherff</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Brandon Scherff</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Cornelius Lucas</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Cornelius Lucas</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Cornelius Lucas</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Geoff Swaim</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Geoff Swaim</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n"/>
+      <c r="E87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Geoff Swaim</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+      <c r="E88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Zack Martin</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Zack Martin</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Zack Martin</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
